--- a/biology/Botanique/Eugenia_vaughanii/Eugenia_vaughanii.xlsx
+++ b/biology/Botanique/Eugenia_vaughanii/Eugenia_vaughanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia vaughanii est une espèce de plante de la famille des myrtaceae. Elle est endémique de l'île Maurice. Son environnement naturel se trouve dans les forêts tropicales. Il n'existe qu'une cinquantaine d'individus à l'état naturel.
 </t>
